--- a/RepartitionValisettes.xlsx
+++ b/RepartitionValisettes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sncf-my.sharepoint.com/personal/pjle02211_commun_ad_sncf_fr/Documents/Documents/01.OM/01.Compteur Energie/4. Appros/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1375" documentId="8_{6C5DB18D-C21B-459F-90A3-67D3DDF13074}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DF8913D-B910-44F6-BDF8-111E4714DA1C}"/>
+  <xr:revisionPtr revIDLastSave="1381" documentId="8_{6C5DB18D-C21B-459F-90A3-67D3DDF13074}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{66CEA382-ABAF-4320-A39C-8A184085B3A1}"/>
   <bookViews>
-    <workbookView xWindow="-19470" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{3B14BEA9-ECB5-4574-BBA0-814DC6A96FF6}"/>
+    <workbookView xWindow="-19470" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{3B14BEA9-ECB5-4574-BBA0-814DC6A96FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Détail visserie" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId11"/>
-    <pivotCache cacheId="20" r:id="rId12"/>
+    <pivotCache cacheId="11" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1209,95 +1209,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <border>
         <left style="thin">
@@ -1597,7 +1509,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="LAINE Julien (EXT INGEVA)" refreshedDate="44495.422745254633" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="195" xr:uid="{88859303-23BB-4D0F-81F0-3166E6858FE3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="LAINE Julien (EXT INGEVA)" refreshedDate="44495.448899189818" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="195" xr:uid="{88859303-23BB-4D0F-81F0-3166E6858FE3}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G250" sheet="Détail visserie"/>
   </cacheSource>
@@ -1694,84 +1606,84 @@
         <s v="Vis parallélogramme M8x25"/>
         <s v="Passe fil DA110/140/30"/>
         <m/>
+        <s v="Vis H M6x20 A2" u="1"/>
+        <s v="Vis H M10x25 A2" u="1"/>
+        <s v="Vis H M12x45 A2" u="1"/>
+        <s v="Vis H M10x35 A2" u="1"/>
+        <s v="Vis H M12x55 A2" u="1"/>
+        <s v="Vis H M10x45 A2" u="1"/>
+        <s v="Vis H M8x30 A2" u="1"/>
+        <s v="Vis H M18x120 Cl8.8" u="1"/>
+        <s v="Rondelle TREP 3L D14 INOX A2" u="1"/>
+        <s v="Rondelle plate L10 A2 (NFE 25-514)" u="1"/>
+        <s v="Vis H M8x35 A2" u="1"/>
+        <s v="Rondelle plate L12 A2" u="1"/>
+        <s v="Ecrou HFR M6 A4" u="1"/>
+        <s v="Rondelle CS 8-16-1.4 A2" u="1"/>
+        <s v="Rondelle TREP 3L D10 INOX A2" u="1"/>
+        <s v="Rondelle plate L14 A2" u="1"/>
+        <s v="Goujon M16x35 A2" u="1"/>
+        <s v="Rondelle plate L16 A2" u="1"/>
+        <s v="Vis H M10x30 Inox A2" u="1"/>
+        <s v="Rondelle TREP 3L D6 INOX A2" u="1"/>
+        <s v="Rondelle CS 8-16-1.4 A2 INOX" u="1"/>
+        <s v="Rondelle Plate L8 A2" u="1"/>
+        <s v="Rondelle plate M10 A2 INOX" u="1"/>
+        <s v="Rondelle plate L12 A2 INOX" u="1"/>
+        <s v="Rondelle plate M12 A2 INOX" u="1"/>
+        <s v="Rondelle plate L14 A2 INOX" u="1"/>
+        <s v="Rondelle plate L16 A2 INOX" u="1"/>
+        <s v="Rondelle plate L10 A2 INOX (NFE25-514)" u="1"/>
+        <s v="Rondelle Plate L8 A2 INOX" u="1"/>
+        <s v="Rondelle Plate M8 A2 INOX" u="1"/>
+        <s v="Vis H M10x30 Cl8.8" u="1"/>
+        <s v="Vis H M8x35 Cl8.8" u="1"/>
+        <s v="Vis H M12x40 Cl8.8" u="1"/>
+        <s v="Rondelle Plate L 8 A2" u="1"/>
+        <s v="Vis CHC M8x16 A2" u="1"/>
+        <s v="Rondelle TREP 3L D8 INOX A2" u="1"/>
+        <s v="Rondelle plate L6 A2" u="1"/>
+        <s v="Rondelle plate M10 A2" u="1"/>
+        <s v="Rondelle plate M12 A2" u="1"/>
         <s v="Ecrou HFR M8 A4" u="1"/>
-        <s v="Rondelle TREP 3L D10 INOX A2" u="1"/>
-        <s v="Rondelle CS 6-14-1.2 A2" u="1"/>
-        <s v="Vis H M12x55 A2" u="1"/>
-        <s v="Vis FHC M6-16 A2" u="1"/>
-        <s v="Vis CHC M8x16 A2" u="1"/>
         <s v="Rondelle plate L6 A2 INOX" u="1"/>
         <s v="Rondelle plate M6 A2 INOX" u="1"/>
+        <s v="Vis H M10x20 A2" u="1"/>
+        <s v="Vis H M14x60 A2" u="1"/>
+        <s v="Vis H M10x30 A2" u="1"/>
+        <s v="Rondelle CS 10-22-1.6 A2" u="1"/>
+        <s v="Vis H M10x40 A2" u="1"/>
+        <s v="Ecrou HFR M16 A4" u="1"/>
+        <s v="Vis H M12x60 A2" u="1"/>
+        <s v="Rondelle plate L10 A2 INOX (NFE25514)" u="1"/>
+        <s v="Vis H M10x50 A2" u="1"/>
+        <s v="Rondelle TREP 3L D16 INOX A2" u="1"/>
+        <s v="Vis H M8x20 A2" u="1"/>
+        <s v="Insert de mise à la masse M6" u="1"/>
+        <s v="Vis H M10x60 A2" u="1"/>
+        <s v="Rondelle TREP 3L D12 INOX A2" u="1"/>
+        <s v="Rondelle CS 6-14-1.3 A2" u="1"/>
         <s v="Vis H M6x16 A2" u="1"/>
-        <s v="Vis H M8x20 A2" u="1"/>
-        <s v="Vis H M12x60 A2" u="1"/>
-        <s v="Rondelle plate L10 A2 (NFE 25-514)" u="1"/>
+        <s v="Ecrou HFR M14 A4" u="1"/>
+        <s v="Rondelle plate L10 A2 INOX (ISO 7093-1)" u="1"/>
+        <s v="Rondelle plate L10 A2 INOX (NFE 25-514)" u="1"/>
+        <s v="Rondelle Plate M8 A2" u="1"/>
+        <s v="Vis FHC M6-16 A2" u="1"/>
+        <s v="Vis paralellogramme M8x25" u="1"/>
+        <s v="Rondelle CS 16-32-2.8 A2" u="1"/>
+        <s v="Ecrou HFR M12 A4" u="1"/>
+        <s v="Rondelle plate L10 A2 (ISO 7093-1)" u="1"/>
         <s v="Vis H M10x25 Cl8.8" u="1"/>
-        <s v="Rondelle plate M10 A2 INOX" u="1"/>
-        <s v="Ecrou HFR M16 A4" u="1"/>
-        <s v="Rondelle plate L12 A2 INOX" u="1"/>
-        <s v="Rondelle plate M12 A2 INOX" u="1"/>
-        <s v="Vis H M8x30 A2" u="1"/>
-        <s v="Goujon M16x35 A2" u="1"/>
-        <s v="Rondelle plate L14 A2 INOX" u="1"/>
-        <s v="Rondelle CS 8-16-1.4 A2" u="1"/>
-        <s v="Rondelle CS 10-22-1.6 A2" u="1"/>
-        <s v="Vis H M10x30 Cl8.8" u="1"/>
-        <s v="Rondelle Plate L8 A2" u="1"/>
-        <s v="Rondelle plate L16 A2 INOX" u="1"/>
-        <s v="Rondelle plate L10 A2 INOX (NFE25-514)" u="1"/>
+        <s v="Ecrou HFR M10 A4" u="1"/>
+        <s v="Vis H M8x50 A2" u="1"/>
         <s v="Vis H M10x35 Cl8.8" u="1"/>
-        <s v="Vis H M10x20 A2" u="1"/>
-        <s v="Vis H M10x25 A2" u="1"/>
-        <s v="Rondelle plate L12 A2" u="1"/>
-        <s v="Vis H M12x40 Cl8.8" u="1"/>
-        <s v="Vis H M8x50 A2" u="1"/>
-        <s v="Rondelle plate L14 A2" u="1"/>
-        <s v="Rondelle TREP 3L D8 INOX A2" u="1"/>
         <s v="Vis H M10x45 Cl8.8" u="1"/>
-        <s v="Rondelle CS 6-14-1.3 A2" u="1"/>
-        <s v="Vis H M10x30 A2" u="1"/>
-        <s v="Vis H M8x35 Cl8.8" u="1"/>
-        <s v="Rondelle plate L16 A2" u="1"/>
-        <s v="Vis H M10x35 A2" u="1"/>
-        <s v="Ecrou HFR M14 A4" u="1"/>
-        <s v="Rondelle plate L10 A2 INOX (NFE 25-514)" u="1"/>
-        <s v="Vis H M10x30 Inox A2" u="1"/>
-        <s v="Rondelle plate L10 A2 INOX (NFE25514)" u="1"/>
-        <s v="Rondelle Plate M8 A2" u="1"/>
-        <s v="Rondelle TREP 3L D6 INOX A2" u="1"/>
-        <s v="Rondelle TREP 3L D16 INOX A2" u="1"/>
-        <s v="Vis H M14x60 A2" u="1"/>
-        <s v="Rondelle Plate L 8 A2" u="1"/>
-        <s v="Vis H M6x20 A2" u="1"/>
-        <s v="Vis H M10x40 A2" u="1"/>
-        <s v="Rondelle plate M10 A2" u="1"/>
-        <s v="Vis H M10x45 A2" u="1"/>
-        <s v="Rondelle plate M12 A2" u="1"/>
+        <s v="Rondelle plate M6 A2" u="1"/>
         <s v="Vis H M16x35 A2" u="1"/>
+        <s v="Rondelle CS 6-14-1.2 A2" u="1"/>
         <s v="Rondelle Plate L8 A2 " u="1"/>
-        <s v="Rondelle Plate L8 A2 INOX" u="1"/>
-        <s v="Rondelle Plate M8 A2 INOX" u="1"/>
-        <s v="Insert de mise à la masse M6" u="1"/>
-        <s v="Vis H M10x50 A2" u="1"/>
-        <s v="Rondelle TREP 3L D14 INOX A2" u="1"/>
-        <s v="Vis paralellogramme M8x25" u="1"/>
-        <s v="Ecrou HFR M12 A4" u="1"/>
-        <s v="Rondelle plate L6 A2" u="1"/>
-        <s v="Ecrou HFR M6 A4" u="1"/>
-        <s v="Vis H M10x60 A2" u="1"/>
-        <s v="Vis H M8x35 A2" u="1"/>
+        <s v="Rondelle plate L8 A2 INOX " u="1"/>
         <s v="Vis H M16x55 A2" u="1"/>
-        <s v="Rondelle TREP 3L D12 INOX A2" u="1"/>
-        <s v="Rondelle plate L10 A2 INOX (ISO 7093-1)" u="1"/>
-        <s v="Rondelle plate L8 A2 INOX " u="1"/>
-        <s v="Rondelle plate L10 A2 (ISO 7093-1)" u="1"/>
-        <s v="Vis H M18x120 Cl8.8" u="1"/>
-        <s v="Rondelle CS 8-16-1.4 A2 INOX" u="1"/>
-        <s v="Ecrou HFR M10 A4" u="1"/>
-        <s v="Vis H M12x45 A2" u="1"/>
-        <s v="Rondelle plate M6 A2" u="1"/>
-        <s v="Rondelle CS 16-32-2.8 A2" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Quantité" numFmtId="0">
@@ -4336,7 +4248,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{75DE17E9-974E-4FD2-A58B-811E8B409520}" name="Tableau croisé dynamique1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{75DE17E9-974E-4FD2-A58B-811E8B409520}" name="Tableau croisé dynamique1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:D144" firstHeaderRow="1" firstDataRow="1" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -4345,164 +4257,164 @@
       <items count="162">
         <item x="67"/>
         <item x="68"/>
-        <item m="1" x="158"/>
+        <item m="1" x="152"/>
         <item x="0"/>
         <item x="14"/>
-        <item m="1" x="146"/>
+        <item m="1" x="149"/>
         <item x="1"/>
         <item x="25"/>
-        <item m="1" x="124"/>
+        <item m="1" x="142"/>
         <item x="26"/>
-        <item m="1" x="98"/>
+        <item m="1" x="131"/>
         <item x="49"/>
-        <item m="1" x="148"/>
+        <item m="1" x="96"/>
         <item x="70"/>
         <item x="69"/>
-        <item m="1" x="84"/>
+        <item m="1" x="123"/>
         <item x="7"/>
         <item x="45"/>
-        <item m="1" x="102"/>
+        <item m="1" x="100"/>
         <item x="50"/>
         <item x="64"/>
         <item x="17"/>
-        <item m="1" x="142"/>
+        <item m="1" x="137"/>
         <item x="63"/>
         <item x="71"/>
         <item x="72"/>
         <item x="82"/>
         <item x="73"/>
-        <item m="1" x="105"/>
+        <item m="1" x="129"/>
         <item x="2"/>
         <item x="27"/>
         <item x="3"/>
-        <item m="1" x="161"/>
+        <item m="1" x="148"/>
         <item x="51"/>
         <item x="74"/>
         <item x="75"/>
-        <item m="1" x="86"/>
-        <item m="1" x="119"/>
+        <item m="1" x="158"/>
+        <item m="1" x="140"/>
         <item x="52"/>
+        <item m="1" x="97"/>
         <item m="1" x="104"/>
-        <item m="1" x="157"/>
         <item x="65"/>
         <item x="22"/>
-        <item m="1" x="132"/>
-        <item m="1" x="155"/>
-        <item m="1" x="95"/>
-        <item m="1" x="153"/>
-        <item m="1" x="125"/>
-        <item m="1" x="127"/>
-        <item m="1" x="109"/>
+        <item m="1" x="117"/>
+        <item m="1" x="150"/>
+        <item m="1" x="93"/>
+        <item m="1" x="143"/>
+        <item m="1" x="144"/>
+        <item m="1" x="133"/>
+        <item m="1" x="111"/>
         <item x="12"/>
         <item x="36"/>
         <item x="13"/>
-        <item m="1" x="113"/>
-        <item m="1" x="99"/>
+        <item m="1" x="95"/>
+        <item m="1" x="107"/>
         <item x="4"/>
         <item x="28"/>
-        <item m="1" x="116"/>
-        <item m="1" x="103"/>
+        <item m="1" x="99"/>
+        <item m="1" x="109"/>
         <item x="29"/>
+        <item m="1" x="101"/>
+        <item m="1" x="110"/>
+        <item x="53"/>
+        <item x="37"/>
+        <item m="1" x="120"/>
+        <item m="1" x="124"/>
+        <item x="54"/>
+        <item m="1" x="105"/>
+        <item m="1" x="159"/>
+        <item m="1" x="112"/>
+        <item m="1" x="160"/>
+        <item x="23"/>
+        <item x="8"/>
+        <item m="1" x="121"/>
+        <item m="1" x="106"/>
+        <item x="43"/>
+        <item x="30"/>
         <item m="1" x="122"/>
         <item m="1" x="108"/>
-        <item x="53"/>
-        <item x="37"/>
-        <item m="1" x="147"/>
-        <item m="1" x="90"/>
-        <item x="54"/>
-        <item m="1" x="107"/>
-        <item m="1" x="139"/>
-        <item m="1" x="140"/>
-        <item m="1" x="154"/>
-        <item x="23"/>
-        <item x="8"/>
-        <item m="1" x="135"/>
-        <item m="1" x="97"/>
-        <item x="43"/>
-        <item x="30"/>
-        <item m="1" x="137"/>
-        <item m="1" x="100"/>
         <item x="55"/>
-        <item m="1" x="160"/>
-        <item m="1" x="91"/>
+        <item m="1" x="156"/>
+        <item m="1" x="125"/>
         <item x="77"/>
-        <item m="1" x="128"/>
-        <item m="1" x="141"/>
+        <item m="1" x="145"/>
+        <item m="1" x="113"/>
         <item x="19"/>
         <item x="15"/>
-        <item m="1" x="85"/>
+        <item m="1" x="98"/>
         <item x="31"/>
-        <item m="1" x="152"/>
+        <item m="1" x="139"/>
         <item x="32"/>
-        <item m="1" x="144"/>
+        <item m="1" x="92"/>
         <item x="56"/>
-        <item m="1" x="130"/>
+        <item m="1" x="135"/>
         <item x="38"/>
         <item x="76"/>
-        <item m="1" x="129"/>
+        <item m="1" x="103"/>
         <item x="9"/>
-        <item m="1" x="117"/>
+        <item m="1" x="119"/>
         <item x="78"/>
+        <item m="1" x="118"/>
+        <item x="61"/>
+        <item m="1" x="146"/>
+        <item x="46"/>
+        <item m="1" x="126"/>
+        <item x="42"/>
+        <item m="1" x="85"/>
+        <item x="20"/>
+        <item m="1" x="151"/>
+        <item x="47"/>
+        <item m="1" x="128"/>
+        <item x="18"/>
+        <item m="1" x="114"/>
+        <item m="1" x="102"/>
+        <item m="1" x="87"/>
+        <item x="5"/>
+        <item m="1" x="154"/>
+        <item x="16"/>
+        <item m="1" x="130"/>
+        <item x="40"/>
         <item m="1" x="89"/>
-        <item x="61"/>
-        <item m="1" x="88"/>
-        <item x="46"/>
-        <item m="1" x="111"/>
-        <item x="42"/>
-        <item m="1" x="112"/>
-        <item x="20"/>
-        <item m="1" x="96"/>
-        <item x="47"/>
-        <item m="1" x="120"/>
-        <item x="18"/>
-        <item m="1" x="106"/>
-        <item m="1" x="126"/>
-        <item m="1" x="123"/>
-        <item x="5"/>
-        <item m="1" x="110"/>
-        <item x="16"/>
+        <item x="44"/>
+        <item m="1" x="155"/>
+        <item x="48"/>
         <item m="1" x="134"/>
-        <item x="40"/>
-        <item m="1" x="136"/>
-        <item x="44"/>
-        <item m="1" x="118"/>
-        <item x="48"/>
-        <item m="1" x="143"/>
         <item x="41"/>
-        <item m="1" x="149"/>
+        <item m="1" x="138"/>
         <item x="57"/>
         <item x="6"/>
-        <item m="1" x="114"/>
-        <item m="1" x="159"/>
+        <item m="1" x="116"/>
+        <item m="1" x="86"/>
         <item x="62"/>
-        <item m="1" x="87"/>
+        <item m="1" x="88"/>
         <item x="33"/>
-        <item m="1" x="94"/>
+        <item m="1" x="132"/>
         <item x="35"/>
-        <item m="1" x="131"/>
+        <item m="1" x="127"/>
         <item x="34"/>
-        <item m="1" x="138"/>
+        <item m="1" x="157"/>
         <item x="58"/>
-        <item m="1" x="151"/>
+        <item m="1" x="161"/>
         <item x="59"/>
         <item x="39"/>
-        <item m="1" x="156"/>
-        <item m="1" x="92"/>
+        <item m="1" x="91"/>
+        <item m="1" x="141"/>
         <item x="60"/>
         <item x="79"/>
-        <item m="1" x="133"/>
+        <item m="1" x="84"/>
         <item x="80"/>
-        <item m="1" x="93"/>
+        <item m="1" x="136"/>
         <item x="21"/>
-        <item m="1" x="101"/>
+        <item m="1" x="90"/>
         <item x="10"/>
-        <item m="1" x="150"/>
+        <item m="1" x="94"/>
         <item x="24"/>
-        <item m="1" x="121"/>
+        <item m="1" x="115"/>
         <item x="11"/>
-        <item m="1" x="115"/>
+        <item m="1" x="153"/>
         <item x="66"/>
-        <item m="1" x="145"/>
+        <item m="1" x="147"/>
         <item x="81"/>
         <item x="83"/>
       </items>
@@ -5203,7 +5115,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{36C099CB-738A-4DF3-B0AF-4931837EFF96}" name="Tableau croisé dynamique2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{36C099CB-738A-4DF3-B0AF-4931837EFF96}" name="Tableau croisé dynamique2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:K78" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -5224,164 +5136,164 @@
       <items count="162">
         <item x="67"/>
         <item x="68"/>
-        <item m="1" x="158"/>
+        <item m="1" x="152"/>
         <item x="0"/>
         <item x="14"/>
-        <item m="1" x="146"/>
+        <item m="1" x="149"/>
         <item x="1"/>
         <item x="25"/>
-        <item m="1" x="124"/>
+        <item m="1" x="142"/>
         <item x="26"/>
-        <item m="1" x="98"/>
+        <item m="1" x="131"/>
         <item x="49"/>
-        <item m="1" x="148"/>
+        <item m="1" x="96"/>
         <item x="70"/>
         <item x="69"/>
-        <item m="1" x="84"/>
+        <item m="1" x="123"/>
         <item x="7"/>
         <item x="45"/>
-        <item m="1" x="102"/>
+        <item m="1" x="100"/>
         <item x="50"/>
         <item x="64"/>
         <item x="17"/>
-        <item m="1" x="142"/>
+        <item m="1" x="137"/>
         <item x="63"/>
         <item x="71"/>
         <item x="72"/>
         <item x="82"/>
         <item x="73"/>
-        <item m="1" x="105"/>
+        <item m="1" x="129"/>
         <item x="2"/>
         <item x="27"/>
         <item x="3"/>
-        <item m="1" x="161"/>
+        <item m="1" x="148"/>
         <item x="51"/>
         <item x="74"/>
         <item x="75"/>
-        <item m="1" x="86"/>
-        <item m="1" x="119"/>
+        <item m="1" x="158"/>
+        <item m="1" x="140"/>
         <item x="52"/>
+        <item m="1" x="97"/>
         <item m="1" x="104"/>
-        <item m="1" x="157"/>
         <item x="65"/>
         <item x="22"/>
-        <item m="1" x="132"/>
-        <item m="1" x="155"/>
-        <item m="1" x="95"/>
-        <item m="1" x="153"/>
-        <item m="1" x="125"/>
-        <item m="1" x="127"/>
-        <item m="1" x="109"/>
+        <item m="1" x="117"/>
+        <item m="1" x="150"/>
+        <item m="1" x="93"/>
+        <item m="1" x="143"/>
+        <item m="1" x="144"/>
+        <item m="1" x="133"/>
+        <item m="1" x="111"/>
         <item x="12"/>
         <item x="36"/>
         <item x="13"/>
-        <item m="1" x="113"/>
-        <item m="1" x="99"/>
+        <item m="1" x="95"/>
+        <item m="1" x="107"/>
         <item x="4"/>
         <item x="28"/>
-        <item m="1" x="116"/>
-        <item m="1" x="103"/>
+        <item m="1" x="99"/>
+        <item m="1" x="109"/>
         <item x="29"/>
+        <item m="1" x="101"/>
+        <item m="1" x="110"/>
+        <item x="53"/>
+        <item x="37"/>
+        <item m="1" x="120"/>
+        <item m="1" x="124"/>
+        <item x="54"/>
+        <item m="1" x="105"/>
+        <item m="1" x="159"/>
+        <item m="1" x="112"/>
+        <item m="1" x="160"/>
+        <item x="23"/>
+        <item x="8"/>
+        <item m="1" x="121"/>
+        <item m="1" x="106"/>
+        <item x="43"/>
+        <item x="30"/>
         <item m="1" x="122"/>
         <item m="1" x="108"/>
-        <item x="53"/>
-        <item x="37"/>
-        <item m="1" x="147"/>
-        <item m="1" x="90"/>
-        <item x="54"/>
-        <item m="1" x="107"/>
-        <item m="1" x="139"/>
-        <item m="1" x="140"/>
-        <item m="1" x="154"/>
-        <item x="23"/>
-        <item x="8"/>
-        <item m="1" x="135"/>
-        <item m="1" x="97"/>
-        <item x="43"/>
-        <item x="30"/>
-        <item m="1" x="137"/>
-        <item m="1" x="100"/>
         <item x="55"/>
-        <item m="1" x="160"/>
-        <item m="1" x="91"/>
+        <item m="1" x="156"/>
+        <item m="1" x="125"/>
         <item x="77"/>
-        <item m="1" x="128"/>
-        <item m="1" x="141"/>
+        <item m="1" x="145"/>
+        <item m="1" x="113"/>
         <item x="19"/>
         <item x="15"/>
-        <item m="1" x="85"/>
+        <item m="1" x="98"/>
         <item x="31"/>
-        <item m="1" x="152"/>
+        <item m="1" x="139"/>
         <item x="32"/>
-        <item m="1" x="144"/>
+        <item m="1" x="92"/>
         <item x="56"/>
-        <item m="1" x="130"/>
+        <item m="1" x="135"/>
         <item x="38"/>
         <item x="76"/>
-        <item m="1" x="129"/>
+        <item m="1" x="103"/>
         <item x="9"/>
-        <item m="1" x="117"/>
+        <item m="1" x="119"/>
         <item x="78"/>
+        <item m="1" x="118"/>
+        <item x="61"/>
+        <item m="1" x="146"/>
+        <item x="46"/>
+        <item m="1" x="126"/>
+        <item x="42"/>
+        <item m="1" x="85"/>
+        <item x="20"/>
+        <item m="1" x="151"/>
+        <item x="47"/>
+        <item m="1" x="128"/>
+        <item x="18"/>
+        <item m="1" x="114"/>
+        <item m="1" x="102"/>
+        <item m="1" x="87"/>
+        <item x="5"/>
+        <item m="1" x="154"/>
+        <item x="16"/>
+        <item m="1" x="130"/>
+        <item x="40"/>
         <item m="1" x="89"/>
-        <item x="61"/>
-        <item m="1" x="88"/>
-        <item x="46"/>
-        <item m="1" x="111"/>
-        <item x="42"/>
-        <item m="1" x="112"/>
-        <item x="20"/>
-        <item m="1" x="96"/>
-        <item x="47"/>
-        <item m="1" x="120"/>
-        <item x="18"/>
-        <item m="1" x="106"/>
-        <item m="1" x="126"/>
-        <item m="1" x="123"/>
-        <item x="5"/>
-        <item m="1" x="110"/>
-        <item x="16"/>
+        <item x="44"/>
+        <item m="1" x="155"/>
+        <item x="48"/>
         <item m="1" x="134"/>
-        <item x="40"/>
-        <item m="1" x="136"/>
-        <item x="44"/>
-        <item m="1" x="118"/>
-        <item x="48"/>
-        <item m="1" x="143"/>
         <item x="41"/>
-        <item m="1" x="149"/>
+        <item m="1" x="138"/>
         <item x="57"/>
         <item x="6"/>
-        <item m="1" x="114"/>
-        <item m="1" x="159"/>
+        <item m="1" x="116"/>
+        <item m="1" x="86"/>
         <item x="62"/>
-        <item m="1" x="87"/>
+        <item m="1" x="88"/>
         <item x="33"/>
-        <item m="1" x="94"/>
+        <item m="1" x="132"/>
         <item x="35"/>
-        <item m="1" x="131"/>
+        <item m="1" x="127"/>
         <item x="34"/>
-        <item m="1" x="138"/>
+        <item m="1" x="157"/>
         <item x="58"/>
-        <item m="1" x="151"/>
+        <item m="1" x="161"/>
         <item x="59"/>
         <item x="39"/>
-        <item m="1" x="156"/>
-        <item m="1" x="92"/>
+        <item m="1" x="91"/>
+        <item m="1" x="141"/>
         <item x="60"/>
         <item x="79"/>
-        <item m="1" x="133"/>
+        <item m="1" x="84"/>
         <item x="80"/>
-        <item m="1" x="93"/>
+        <item m="1" x="136"/>
         <item x="21"/>
-        <item m="1" x="101"/>
+        <item m="1" x="90"/>
         <item x="10"/>
-        <item m="1" x="150"/>
+        <item m="1" x="94"/>
         <item x="24"/>
-        <item m="1" x="121"/>
+        <item m="1" x="115"/>
         <item x="11"/>
-        <item m="1" x="115"/>
+        <item m="1" x="153"/>
         <item x="66"/>
-        <item m="1" x="145"/>
+        <item m="1" x="147"/>
         <item x="81"/>
         <item x="83"/>
       </items>
@@ -5862,7 +5774,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{10816496-8329-45E5-AD7D-B72E9D468D8A}" name="Tableau croisé dynamique1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{10816496-8329-45E5-AD7D-B72E9D468D8A}" name="Tableau croisé dynamique1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B75" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -5883,164 +5795,164 @@
       <items count="162">
         <item x="67"/>
         <item x="68"/>
-        <item m="1" x="158"/>
+        <item m="1" x="152"/>
         <item x="0"/>
         <item x="14"/>
-        <item m="1" x="146"/>
+        <item m="1" x="149"/>
         <item x="1"/>
         <item x="25"/>
-        <item m="1" x="124"/>
+        <item m="1" x="142"/>
         <item x="26"/>
-        <item m="1" x="98"/>
+        <item m="1" x="131"/>
         <item x="49"/>
-        <item m="1" x="148"/>
+        <item m="1" x="96"/>
         <item x="70"/>
         <item x="69"/>
-        <item m="1" x="84"/>
+        <item m="1" x="123"/>
         <item x="7"/>
         <item x="45"/>
-        <item m="1" x="102"/>
+        <item m="1" x="100"/>
         <item x="50"/>
         <item x="64"/>
         <item x="17"/>
-        <item m="1" x="142"/>
+        <item m="1" x="137"/>
         <item x="63"/>
         <item x="71"/>
         <item x="72"/>
         <item x="82"/>
         <item x="73"/>
-        <item m="1" x="105"/>
+        <item m="1" x="129"/>
         <item x="2"/>
         <item x="27"/>
         <item x="3"/>
-        <item m="1" x="161"/>
+        <item m="1" x="148"/>
         <item x="51"/>
         <item x="74"/>
         <item x="75"/>
-        <item m="1" x="86"/>
-        <item m="1" x="119"/>
+        <item m="1" x="158"/>
+        <item m="1" x="140"/>
         <item x="52"/>
+        <item m="1" x="97"/>
         <item m="1" x="104"/>
-        <item m="1" x="157"/>
         <item x="65"/>
         <item x="22"/>
-        <item m="1" x="132"/>
-        <item m="1" x="155"/>
-        <item m="1" x="95"/>
-        <item m="1" x="153"/>
-        <item m="1" x="125"/>
-        <item m="1" x="127"/>
-        <item m="1" x="109"/>
+        <item m="1" x="117"/>
+        <item m="1" x="150"/>
+        <item m="1" x="93"/>
+        <item m="1" x="143"/>
+        <item m="1" x="144"/>
+        <item m="1" x="133"/>
+        <item m="1" x="111"/>
         <item x="12"/>
         <item x="36"/>
         <item x="13"/>
-        <item m="1" x="113"/>
-        <item m="1" x="99"/>
+        <item m="1" x="95"/>
+        <item m="1" x="107"/>
         <item x="4"/>
         <item x="28"/>
-        <item m="1" x="116"/>
-        <item m="1" x="103"/>
+        <item m="1" x="99"/>
+        <item m="1" x="109"/>
         <item x="29"/>
+        <item m="1" x="101"/>
+        <item m="1" x="110"/>
+        <item x="53"/>
+        <item x="37"/>
+        <item m="1" x="120"/>
+        <item m="1" x="124"/>
+        <item x="54"/>
+        <item m="1" x="105"/>
+        <item m="1" x="159"/>
+        <item m="1" x="112"/>
+        <item m="1" x="160"/>
+        <item x="23"/>
+        <item x="8"/>
+        <item m="1" x="121"/>
+        <item m="1" x="106"/>
+        <item x="43"/>
+        <item x="30"/>
         <item m="1" x="122"/>
         <item m="1" x="108"/>
-        <item x="53"/>
-        <item x="37"/>
-        <item m="1" x="147"/>
-        <item m="1" x="90"/>
-        <item x="54"/>
-        <item m="1" x="107"/>
-        <item m="1" x="139"/>
-        <item m="1" x="140"/>
-        <item m="1" x="154"/>
-        <item x="23"/>
-        <item x="8"/>
-        <item m="1" x="135"/>
-        <item m="1" x="97"/>
-        <item x="43"/>
-        <item x="30"/>
-        <item m="1" x="137"/>
-        <item m="1" x="100"/>
         <item x="55"/>
-        <item m="1" x="160"/>
-        <item m="1" x="91"/>
+        <item m="1" x="156"/>
+        <item m="1" x="125"/>
         <item x="77"/>
-        <item m="1" x="128"/>
-        <item m="1" x="141"/>
+        <item m="1" x="145"/>
+        <item m="1" x="113"/>
         <item x="19"/>
         <item x="15"/>
-        <item m="1" x="85"/>
+        <item m="1" x="98"/>
         <item x="31"/>
-        <item m="1" x="152"/>
+        <item m="1" x="139"/>
         <item x="32"/>
-        <item m="1" x="144"/>
+        <item m="1" x="92"/>
         <item x="56"/>
-        <item m="1" x="130"/>
+        <item m="1" x="135"/>
         <item x="38"/>
         <item x="76"/>
-        <item m="1" x="129"/>
+        <item m="1" x="103"/>
         <item x="9"/>
-        <item m="1" x="117"/>
+        <item m="1" x="119"/>
         <item x="78"/>
+        <item m="1" x="118"/>
+        <item x="61"/>
+        <item m="1" x="146"/>
+        <item x="46"/>
+        <item m="1" x="126"/>
+        <item x="42"/>
+        <item m="1" x="85"/>
+        <item x="20"/>
+        <item m="1" x="151"/>
+        <item x="47"/>
+        <item m="1" x="128"/>
+        <item x="18"/>
+        <item m="1" x="114"/>
+        <item m="1" x="102"/>
+        <item m="1" x="87"/>
+        <item x="5"/>
+        <item m="1" x="154"/>
+        <item x="16"/>
+        <item m="1" x="130"/>
+        <item x="40"/>
         <item m="1" x="89"/>
-        <item x="61"/>
-        <item m="1" x="88"/>
-        <item x="46"/>
-        <item m="1" x="111"/>
-        <item x="42"/>
-        <item m="1" x="112"/>
-        <item x="20"/>
-        <item m="1" x="96"/>
-        <item x="47"/>
-        <item m="1" x="120"/>
-        <item x="18"/>
-        <item m="1" x="106"/>
-        <item m="1" x="126"/>
-        <item m="1" x="123"/>
-        <item x="5"/>
-        <item m="1" x="110"/>
-        <item x="16"/>
+        <item x="44"/>
+        <item m="1" x="155"/>
+        <item x="48"/>
         <item m="1" x="134"/>
-        <item x="40"/>
-        <item m="1" x="136"/>
-        <item x="44"/>
-        <item m="1" x="118"/>
-        <item x="48"/>
-        <item m="1" x="143"/>
         <item x="41"/>
-        <item m="1" x="149"/>
+        <item m="1" x="138"/>
         <item x="57"/>
         <item x="6"/>
-        <item m="1" x="114"/>
-        <item m="1" x="159"/>
+        <item m="1" x="116"/>
+        <item m="1" x="86"/>
         <item x="62"/>
-        <item m="1" x="87"/>
+        <item m="1" x="88"/>
         <item x="33"/>
-        <item m="1" x="94"/>
+        <item m="1" x="132"/>
         <item x="35"/>
-        <item m="1" x="131"/>
+        <item m="1" x="127"/>
         <item x="34"/>
-        <item m="1" x="138"/>
+        <item m="1" x="157"/>
         <item x="58"/>
-        <item m="1" x="151"/>
+        <item m="1" x="161"/>
         <item x="59"/>
         <item x="39"/>
-        <item m="1" x="156"/>
-        <item m="1" x="92"/>
+        <item m="1" x="91"/>
+        <item m="1" x="141"/>
         <item x="60"/>
         <item x="79"/>
-        <item m="1" x="133"/>
+        <item m="1" x="84"/>
         <item x="80"/>
-        <item m="1" x="93"/>
+        <item m="1" x="136"/>
         <item x="21"/>
-        <item m="1" x="101"/>
+        <item m="1" x="90"/>
         <item x="10"/>
-        <item m="1" x="150"/>
+        <item m="1" x="94"/>
         <item x="24"/>
-        <item m="1" x="121"/>
+        <item m="1" x="115"/>
         <item x="11"/>
-        <item m="1" x="115"/>
+        <item m="1" x="153"/>
         <item x="66"/>
-        <item m="1" x="145"/>
+        <item m="1" x="147"/>
         <item x="81"/>
         <item x="83"/>
       </items>
@@ -6316,7 +6228,7 @@
     <dataField name="Quantité totale" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="9">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="50">
@@ -6374,7 +6286,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="35">
@@ -7228,13 +7140,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B4680D-E99B-4370-BFA6-DCDE0C1F8A81}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:G195"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G45" sqref="A45:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7294,7 +7206,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -7318,7 +7230,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -7342,7 +7254,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -7366,7 +7278,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -7390,7 +7302,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -7414,7 +7326,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -7438,7 +7350,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -7462,7 +7374,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
@@ -7486,7 +7398,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
@@ -7510,7 +7422,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -7534,7 +7446,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
@@ -7558,7 +7470,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>10</v>
       </c>
@@ -7582,7 +7494,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
@@ -7606,7 +7518,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>10</v>
       </c>
@@ -7630,7 +7542,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>10</v>
       </c>
@@ -7654,7 +7566,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -7678,7 +7590,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>10</v>
       </c>
@@ -7726,7 +7638,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>10</v>
       </c>
@@ -7750,7 +7662,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>10</v>
       </c>
@@ -7774,7 +7686,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>10</v>
       </c>
@@ -7798,7 +7710,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>10</v>
       </c>
@@ -7822,7 +7734,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -7846,7 +7758,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -7870,7 +7782,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -7942,7 +7854,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -7966,7 +7878,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>10</v>
       </c>
@@ -7990,7 +7902,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -8014,7 +7926,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -8038,7 +7950,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -8062,7 +7974,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -8086,7 +7998,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -8110,7 +8022,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -8134,7 +8046,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -8158,7 +8070,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -8182,7 +8094,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -8206,7 +8118,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -8230,7 +8142,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -8254,7 +8166,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -8278,7 +8190,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -8326,7 +8238,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>10</v>
       </c>
@@ -8350,7 +8262,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>10</v>
       </c>
@@ -8398,7 +8310,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -8422,7 +8334,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -8446,7 +8358,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -8470,7 +8382,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -8494,7 +8406,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -8518,7 +8430,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -8542,7 +8454,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -8566,7 +8478,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -8590,7 +8502,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -8614,7 +8526,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -8638,7 +8550,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -8662,7 +8574,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -8686,7 +8598,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -8710,7 +8622,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -8734,7 +8646,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -8758,7 +8670,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -8782,7 +8694,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -8806,7 +8718,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -8830,7 +8742,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -8854,7 +8766,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -8878,7 +8790,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -8902,7 +8814,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -8926,7 +8838,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -8974,7 +8886,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -8998,7 +8910,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -9022,7 +8934,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -9046,7 +8958,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -9070,7 +8982,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -9094,7 +9006,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -9118,7 +9030,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -9142,7 +9054,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -9166,7 +9078,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -9190,7 +9102,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -9214,7 +9126,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>10</v>
       </c>
@@ -9238,7 +9150,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>10</v>
       </c>
@@ -9262,7 +9174,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -9310,7 +9222,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -9334,7 +9246,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -9358,7 +9270,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -9382,7 +9294,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>288</v>
       </c>
@@ -9406,7 +9318,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>288</v>
       </c>
@@ -9430,7 +9342,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>288</v>
       </c>
@@ -9454,7 +9366,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>288</v>
       </c>
@@ -9478,7 +9390,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>288</v>
       </c>
@@ -9502,7 +9414,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>288</v>
       </c>
@@ -9526,7 +9438,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>288</v>
       </c>
@@ -9550,7 +9462,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>288</v>
       </c>
@@ -9574,7 +9486,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>288</v>
       </c>
@@ -9598,7 +9510,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>288</v>
       </c>
@@ -9622,7 +9534,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>288</v>
       </c>
@@ -9646,7 +9558,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>288</v>
       </c>
@@ -9670,7 +9582,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>288</v>
       </c>
@@ -9694,7 +9606,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>288</v>
       </c>
@@ -9718,7 +9630,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>288</v>
       </c>
@@ -9742,7 +9654,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>288</v>
       </c>
@@ -9790,7 +9702,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>288</v>
       </c>
@@ -9814,7 +9726,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>288</v>
       </c>
@@ -9838,7 +9750,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>288</v>
       </c>
@@ -9862,7 +9774,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>288</v>
       </c>
@@ -9886,7 +9798,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>288</v>
       </c>
@@ -9910,7 +9822,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>288</v>
       </c>
@@ -9934,7 +9846,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>288</v>
       </c>
@@ -9958,7 +9870,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>288</v>
       </c>
@@ -9982,7 +9894,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>288</v>
       </c>
@@ -10006,7 +9918,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>288</v>
       </c>
@@ -10030,7 +9942,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>288</v>
       </c>
@@ -10054,7 +9966,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>288</v>
       </c>
@@ -10078,7 +9990,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>288</v>
       </c>
@@ -10102,7 +10014,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>288</v>
       </c>
@@ -10126,7 +10038,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>288</v>
       </c>
@@ -10150,7 +10062,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>288</v>
       </c>
@@ -10174,7 +10086,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>288</v>
       </c>
@@ -10198,7 +10110,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>288</v>
       </c>
@@ -10222,7 +10134,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>288</v>
       </c>
@@ -10246,7 +10158,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>288</v>
       </c>
@@ -10270,7 +10182,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>288</v>
       </c>
@@ -10294,7 +10206,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>288</v>
       </c>
@@ -10318,7 +10230,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>288</v>
       </c>
@@ -10342,7 +10254,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>291</v>
       </c>
@@ -10366,7 +10278,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>291</v>
       </c>
@@ -10390,7 +10302,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>291</v>
       </c>
@@ -10414,7 +10326,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>291</v>
       </c>
@@ -10438,7 +10350,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>291</v>
       </c>
@@ -10462,7 +10374,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>291</v>
       </c>
@@ -10486,7 +10398,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>291</v>
       </c>
@@ -10510,7 +10422,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>291</v>
       </c>
@@ -10534,7 +10446,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -10582,7 +10494,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -10606,7 +10518,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -10630,7 +10542,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -10654,7 +10566,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>10</v>
       </c>
@@ -10678,7 +10590,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -10702,7 +10614,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>10</v>
       </c>
@@ -10750,7 +10662,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>288</v>
       </c>
@@ -10774,7 +10686,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>288</v>
       </c>
@@ -10798,7 +10710,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>288</v>
       </c>
@@ -10822,7 +10734,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>288</v>
       </c>
@@ -10846,7 +10758,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>288</v>
       </c>
@@ -10870,7 +10782,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>288</v>
       </c>
@@ -10894,7 +10806,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>288</v>
       </c>
@@ -10942,7 +10854,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>291</v>
       </c>
@@ -10966,7 +10878,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>291</v>
       </c>
@@ -10990,7 +10902,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>291</v>
       </c>
@@ -11014,7 +10926,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>291</v>
       </c>
@@ -11038,7 +10950,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>291</v>
       </c>
@@ -11062,7 +10974,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>291</v>
       </c>
@@ -11086,7 +10998,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>291</v>
       </c>
@@ -11110,7 +11022,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>291</v>
       </c>
@@ -11134,7 +11046,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>291</v>
       </c>
@@ -11158,7 +11070,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>291</v>
       </c>
@@ -11182,7 +11094,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>291</v>
       </c>
@@ -11206,7 +11118,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>295</v>
       </c>
@@ -11227,7 +11139,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>295</v>
       </c>
@@ -11248,7 +11160,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>295</v>
       </c>
@@ -11272,7 +11184,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>295</v>
       </c>
@@ -11296,7 +11208,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>295</v>
       </c>
@@ -11320,7 +11232,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>295</v>
       </c>
@@ -11341,7 +11253,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>295</v>
       </c>
@@ -11365,7 +11277,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>295</v>
       </c>
@@ -11386,7 +11298,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>295</v>
       </c>
@@ -11407,7 +11319,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>295</v>
       </c>
@@ -11428,7 +11340,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>295</v>
       </c>
@@ -11449,7 +11361,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>295</v>
       </c>
@@ -11473,7 +11385,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>295</v>
       </c>
@@ -11494,7 +11406,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>295</v>
       </c>
@@ -11518,7 +11430,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>295</v>
       </c>
@@ -11542,7 +11454,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>295</v>
       </c>
@@ -11566,7 +11478,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>295</v>
       </c>
@@ -11590,7 +11502,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>295</v>
       </c>
@@ -11614,7 +11526,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>295</v>
       </c>
@@ -11638,7 +11550,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>295</v>
       </c>
@@ -11662,7 +11574,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>295</v>
       </c>
@@ -11686,7 +11598,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>295</v>
       </c>
@@ -11710,7 +11622,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>295</v>
       </c>
@@ -11734,7 +11646,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>295</v>
       </c>
@@ -11755,7 +11667,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>295</v>
       </c>
@@ -11776,7 +11688,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>295</v>
       </c>
@@ -11800,7 +11712,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>295</v>
       </c>
@@ -11824,7 +11736,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>295</v>
       </c>
@@ -11848,7 +11760,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>295</v>
       </c>
@@ -11872,7 +11784,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>295</v>
       </c>
@@ -11895,6 +11807,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G195" xr:uid="{0FA1E11E-C261-4C01-AE27-EDDE2814E404}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Ecrou HFR M10 Acier Cl8"/>
+        <filter val="Ecrou HFR M10 Inox A4"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G195">
       <sortCondition ref="G1:G195"/>
     </sortState>
@@ -12088,7 +12006,7 @@
   <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D135" sqref="D135:D143"/>
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14338,8 +14256,8 @@
   </sheetPr>
   <dimension ref="A2:K78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17338,10 +17256,10 @@
   </sheetPr>
   <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D17" sqref="D17"/>
-      <selection pane="bottomLeft" activeCell="N4" sqref="N4:N113"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17497,20 +17415,20 @@
         <v>14</v>
       </c>
       <c r="E4" s="22" t="str">
-        <f>_xlfn.CONCAT(C4,"-",D4)</f>
+        <f t="shared" ref="E4:E35" si="1">_xlfn.CONCAT(C4,"-",D4)</f>
         <v>INTV000086-14</v>
       </c>
       <c r="F4" s="22">
         <v>6</v>
       </c>
       <c r="G4" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="22">
         <v>0</v>
       </c>
       <c r="I4" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="22">
         <v>0</v>
@@ -17528,7 +17446,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="30">
-        <f>SUM(F4:N4)-D4</f>
+        <f t="shared" ref="O4:O35" si="2">SUM(F4:N4)-D4</f>
         <v>0</v>
       </c>
     </row>
@@ -17546,20 +17464,20 @@
         <v>16</v>
       </c>
       <c r="E5" s="22" t="str">
-        <f>_xlfn.CONCAT(C5,"-",D5)</f>
+        <f t="shared" si="1"/>
         <v>INTV000028-16</v>
       </c>
       <c r="F5" s="22">
         <v>0</v>
       </c>
       <c r="G5" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" s="22">
         <v>4</v>
       </c>
       <c r="I5" s="22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J5" s="22">
         <v>0</v>
@@ -17577,7 +17495,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="30">
-        <f>SUM(F5:N5)-D5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -17595,7 +17513,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="22" t="str">
-        <f>_xlfn.CONCAT(C6,"-",D6)</f>
+        <f t="shared" si="1"/>
         <v>INTV000028-2</v>
       </c>
       <c r="F6" s="22">
@@ -17626,7 +17544,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="30">
-        <f>SUM(F6:N6)-D6</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -17644,7 +17562,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="22" t="str">
-        <f>_xlfn.CONCAT(C7,"-",D7)</f>
+        <f t="shared" si="1"/>
         <v>INTV000028-1</v>
       </c>
       <c r="F7" s="22">
@@ -17675,7 +17593,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="30">
-        <f>SUM(F7:N7)-D7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -17693,7 +17611,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="22" t="str">
-        <f>_xlfn.CONCAT(C8,"-",D8)</f>
+        <f t="shared" si="1"/>
         <v>INTV000118-8</v>
       </c>
       <c r="F8" s="22">
@@ -17724,7 +17642,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="30">
-        <f>SUM(F8:N8)-D8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -17742,7 +17660,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="22" t="str">
-        <f>_xlfn.CONCAT(C9,"-",D9)</f>
+        <f t="shared" si="1"/>
         <v>INTV000013-6</v>
       </c>
       <c r="F9" s="22">
@@ -17773,7 +17691,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="30">
-        <f>SUM(F9:N9)-D9</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -17791,7 +17709,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="22" t="str">
-        <f>_xlfn.CONCAT(C10,"-",D10)</f>
+        <f t="shared" si="1"/>
         <v>INTV000013-12</v>
       </c>
       <c r="F10" s="22">
@@ -17822,7 +17740,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="30">
-        <f>SUM(F10:N10)-D10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -17840,7 +17758,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="22" t="str">
-        <f>_xlfn.CONCAT(C11,"-",D11)</f>
+        <f t="shared" si="1"/>
         <v>INTV000013-1</v>
       </c>
       <c r="F11" s="22">
@@ -17871,7 +17789,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="30">
-        <f>SUM(F11:N11)-D11</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -17889,7 +17807,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="22" t="str">
-        <f>_xlfn.CONCAT(C12,"-",D12)</f>
+        <f t="shared" si="1"/>
         <v>INTV000059-1</v>
       </c>
       <c r="F12" s="22">
@@ -17920,7 +17838,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="30">
-        <f>SUM(F12:N12)-D12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -17938,7 +17856,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="22" t="str">
-        <f>_xlfn.CONCAT(C13,"-",D13)</f>
+        <f t="shared" si="1"/>
         <v>INTV000144-2</v>
       </c>
       <c r="F13" s="22">
@@ -17969,7 +17887,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="30">
-        <f>SUM(F13:N13)-D13</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -17987,7 +17905,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="22" t="str">
-        <f>_xlfn.CONCAT(C14,"-",D14)</f>
+        <f t="shared" si="1"/>
         <v>INTV000029-2</v>
       </c>
       <c r="F14" s="22">
@@ -18018,7 +17936,7 @@
         <v>2</v>
       </c>
       <c r="O14" s="30">
-        <f>SUM(F14:N14)-D14</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18036,7 +17954,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="22" t="str">
-        <f>_xlfn.CONCAT(C15,"-",D15)</f>
+        <f t="shared" si="1"/>
         <v>INTV000029-2</v>
       </c>
       <c r="F15" s="22">
@@ -18067,7 +17985,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="30">
-        <f>SUM(F15:N15)-D15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18085,7 +18003,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="22" t="str">
-        <f>_xlfn.CONCAT(C16,"-",D16)</f>
+        <f t="shared" si="1"/>
         <v>INTV000014-10</v>
       </c>
       <c r="F16" s="22">
@@ -18116,7 +18034,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="30">
-        <f>SUM(F16:N16)-D16</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18134,7 +18052,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="22" t="str">
-        <f>_xlfn.CONCAT(C17,"-",D17)</f>
+        <f t="shared" si="1"/>
         <v>INTV000014-4</v>
       </c>
       <c r="F17" s="22">
@@ -18165,7 +18083,7 @@
         <v>4</v>
       </c>
       <c r="O17" s="30">
-        <f>SUM(F17:N17)-D17</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18183,7 +18101,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="22" t="str">
-        <f>_xlfn.CONCAT(C18,"-",D18)</f>
+        <f t="shared" si="1"/>
         <v>INTV000046-2</v>
       </c>
       <c r="F18" s="22">
@@ -18214,7 +18132,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="30">
-        <f>SUM(F18:N18)-D18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18232,7 +18150,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="22" t="str">
-        <f>_xlfn.CONCAT(C19,"-",D19)</f>
+        <f t="shared" si="1"/>
         <v>INTV000021-1</v>
       </c>
       <c r="F19" s="22">
@@ -18263,7 +18181,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="30">
-        <f>SUM(F19:N19)-D19</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18281,7 +18199,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="22" t="str">
-        <f>_xlfn.CONCAT(C20,"-",D20)</f>
+        <f t="shared" si="1"/>
         <v>INTV000037-1</v>
       </c>
       <c r="F20" s="22">
@@ -18312,7 +18230,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="30">
-        <f>SUM(F20:N20)-D20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18330,7 +18248,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="22" t="str">
-        <f>_xlfn.CONCAT(C21,"-",D21)</f>
+        <f t="shared" si="1"/>
         <v>INTV000160-3</v>
       </c>
       <c r="F21" s="22">
@@ -18361,7 +18279,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="30">
-        <f>SUM(F21:N21)-D21</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18379,7 +18297,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="22" t="str">
-        <f>_xlfn.CONCAT(C22,"-",D22)</f>
+        <f t="shared" si="1"/>
         <v>INTV000160-1</v>
       </c>
       <c r="F22" s="22">
@@ -18410,7 +18328,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="30">
-        <f>SUM(F22:N22)-D22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18428,7 +18346,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="22" t="str">
-        <f>_xlfn.CONCAT(C23,"-",D23)</f>
+        <f t="shared" si="1"/>
         <v>INTV000160-1</v>
       </c>
       <c r="F23" s="22">
@@ -18459,7 +18377,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="30">
-        <f>SUM(F23:N23)-D23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18477,7 +18395,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="22" t="str">
-        <f>_xlfn.CONCAT(C24,"-",D24)</f>
+        <f t="shared" si="1"/>
         <v>INTV000137-2</v>
       </c>
       <c r="F24" s="22">
@@ -18508,7 +18426,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="30">
-        <f>SUM(F24:N24)-D24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18526,7 +18444,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="22" t="str">
-        <f>_xlfn.CONCAT(C25,"-",D25)</f>
+        <f t="shared" si="1"/>
         <v>INTV000137-8</v>
       </c>
       <c r="F25" s="22">
@@ -18557,7 +18475,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="30">
-        <f>SUM(F25:N25)-D25</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18575,7 +18493,7 @@
         <v>24</v>
       </c>
       <c r="E26" s="22" t="str">
-        <f>_xlfn.CONCAT(C26,"-",D26)</f>
+        <f t="shared" si="1"/>
         <v>INTV000085-24</v>
       </c>
       <c r="F26" s="22">
@@ -18606,7 +18524,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="30">
-        <f>SUM(F26:N26)-D26</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18624,7 +18542,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="22" t="str">
-        <f>_xlfn.CONCAT(C27,"-",D27)</f>
+        <f t="shared" si="1"/>
         <v>INTV000010-10</v>
       </c>
       <c r="F27" s="22">
@@ -18655,7 +18573,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="30">
-        <f>SUM(F27:N27)-D27</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18673,7 +18591,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="22" t="str">
-        <f>_xlfn.CONCAT(C28,"-",D28)</f>
+        <f t="shared" si="1"/>
         <v>INTV000010-11</v>
       </c>
       <c r="F28" s="22">
@@ -18704,7 +18622,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="30">
-        <f>SUM(F28:N28)-D28</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18722,7 +18640,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="22" t="str">
-        <f>_xlfn.CONCAT(C29,"-",D29)</f>
+        <f t="shared" si="1"/>
         <v>INTV000010-1</v>
       </c>
       <c r="F29" s="22">
@@ -18753,7 +18671,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="30">
-        <f>SUM(F29:N29)-D29</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18771,7 +18689,7 @@
         <v>8</v>
       </c>
       <c r="E30" s="22" t="str">
-        <f>_xlfn.CONCAT(C30,"-",D30)</f>
+        <f t="shared" si="1"/>
         <v>INTV000154-8</v>
       </c>
       <c r="F30" s="22">
@@ -18802,7 +18720,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="30">
-        <f>SUM(F30:N30)-D30</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18820,7 +18738,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="22" t="str">
-        <f>_xlfn.CONCAT(C31,"-",D31)</f>
+        <f t="shared" si="1"/>
         <v>INTV000023-1</v>
       </c>
       <c r="F31" s="22">
@@ -18851,7 +18769,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="30">
-        <f>SUM(F31:N31)-D31</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18869,7 +18787,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="22" t="str">
-        <f>_xlfn.CONCAT(C32,"-",D32)</f>
+        <f t="shared" si="1"/>
         <v>INTV000036-2</v>
       </c>
       <c r="F32" s="22">
@@ -18900,7 +18818,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="30">
-        <f>SUM(F32:N32)-D32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18918,7 +18836,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="22" t="str">
-        <f>_xlfn.CONCAT(C33,"-",D33)</f>
+        <f t="shared" si="1"/>
         <v>INTV000036-4</v>
       </c>
       <c r="F33" s="22">
@@ -18949,7 +18867,7 @@
         <v>4</v>
       </c>
       <c r="O33" s="30">
-        <f>SUM(F33:N33)-D33</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18967,7 +18885,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="22" t="str">
-        <f>_xlfn.CONCAT(C34,"-",D34)</f>
+        <f t="shared" si="1"/>
         <v>INTV000024-4</v>
       </c>
       <c r="F34" s="22">
@@ -18998,7 +18916,7 @@
         <v>4</v>
       </c>
       <c r="O34" s="30">
-        <f>SUM(F34:N34)-D34</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -19016,7 +18934,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="22" t="str">
-        <f>_xlfn.CONCAT(C35,"-",D35)</f>
+        <f t="shared" si="1"/>
         <v>INTV000024-6</v>
       </c>
       <c r="F35" s="22">
@@ -19047,7 +18965,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="30">
-        <f>SUM(F35:N35)-D35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -19065,7 +18983,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="22" t="str">
-        <f>_xlfn.CONCAT(C36,"-",D36)</f>
+        <f t="shared" ref="E36:E67" si="3">_xlfn.CONCAT(C36,"-",D36)</f>
         <v>INTV000116-2</v>
       </c>
       <c r="F36" s="22">
@@ -19096,7 +19014,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="30">
-        <f>SUM(F36:N36)-D36</f>
+        <f t="shared" ref="O36:O67" si="4">SUM(F36:N36)-D36</f>
         <v>0</v>
       </c>
     </row>
@@ -19114,7 +19032,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="22" t="str">
-        <f>_xlfn.CONCAT(C37,"-",D37)</f>
+        <f t="shared" si="3"/>
         <v>INTV000116-1</v>
       </c>
       <c r="F37" s="22">
@@ -19145,7 +19063,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="30">
-        <f>SUM(F37:N37)-D37</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -19163,7 +19081,7 @@
         <v>26</v>
       </c>
       <c r="E38" s="22" t="str">
-        <f>_xlfn.CONCAT(C38,"-",D38)</f>
+        <f t="shared" si="3"/>
         <v>INTV000125-26</v>
       </c>
       <c r="F38" s="22">
@@ -19194,7 +19112,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="30">
-        <f>SUM(F38:N38)-D38</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -19212,7 +19130,7 @@
         <v>4</v>
       </c>
       <c r="E39" s="22" t="str">
-        <f>_xlfn.CONCAT(C39,"-",D39)</f>
+        <f t="shared" si="3"/>
         <v>INTV000008-4</v>
       </c>
       <c r="F39" s="22">
@@ -19243,7 +19161,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="30">
-        <f>SUM(F39:N39)-D39</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -19261,7 +19179,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="22" t="str">
-        <f>_xlfn.CONCAT(C40,"-",D40)</f>
+        <f t="shared" si="3"/>
         <v>INTV000008-10</v>
       </c>
       <c r="F40" s="22">
@@ -19292,7 +19210,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="30">
-        <f>SUM(F40:N40)-D40</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -19310,7 +19228,7 @@
         <v>7</v>
       </c>
       <c r="E41" s="22" t="str">
-        <f>_xlfn.CONCAT(C41,"-",D41)</f>
+        <f t="shared" si="3"/>
         <v>INTV000161-7</v>
       </c>
       <c r="F41" s="22">
@@ -19341,7 +19259,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="30">
-        <f>SUM(F41:N41)-D41</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -19359,7 +19277,7 @@
         <v>5</v>
       </c>
       <c r="E42" s="22" t="str">
-        <f>_xlfn.CONCAT(C42,"-",D42)</f>
+        <f t="shared" si="3"/>
         <v>INTV000161-5</v>
       </c>
       <c r="F42" s="22">
@@ -19390,7 +19308,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="30">
-        <f>SUM(F42:N42)-D42</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -19408,7 +19326,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="22" t="str">
-        <f>_xlfn.CONCAT(C43,"-",D43)</f>
+        <f t="shared" si="3"/>
         <v>INTV000161-2</v>
       </c>
       <c r="F43" s="22">
@@ -19439,7 +19357,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="30">
-        <f>SUM(F43:N43)-D43</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -19457,7 +19375,7 @@
         <v>16</v>
       </c>
       <c r="E44" s="22" t="str">
-        <f>_xlfn.CONCAT(C44,"-",D44)</f>
+        <f t="shared" si="3"/>
         <v>INTV000152-16</v>
       </c>
       <c r="F44" s="22">
@@ -19488,7 +19406,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="30">
-        <f>SUM(F44:N44)-D44</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -19506,7 +19424,7 @@
         <v>12</v>
       </c>
       <c r="E45" s="22" t="str">
-        <f>_xlfn.CONCAT(C45,"-",D45)</f>
+        <f t="shared" si="3"/>
         <v>INTV000007-12</v>
       </c>
       <c r="F45" s="22">
@@ -19537,7 +19455,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="30">
-        <f>SUM(F45:N45)-D45</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -19555,7 +19473,7 @@
         <v>16</v>
       </c>
       <c r="E46" s="22" t="str">
-        <f>_xlfn.CONCAT(C46,"-",D46)</f>
+        <f t="shared" si="3"/>
         <v>INTV000007-16</v>
       </c>
       <c r="F46" s="22">
@@ -19586,7 +19504,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="30">
-        <f>SUM(F46:N46)-D46</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -19604,7 +19522,7 @@
         <v>2</v>
       </c>
       <c r="E47" s="22" t="str">
-        <f>_xlfn.CONCAT(C47,"-",D47)</f>
+        <f t="shared" si="3"/>
         <v>INTV000057-2</v>
       </c>
       <c r="F47" s="22">
@@ -19635,7 +19553,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="30">
-        <f>SUM(F47:N47)-D47</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -19653,7 +19571,7 @@
         <v>4</v>
       </c>
       <c r="E48" s="22" t="str">
-        <f>_xlfn.CONCAT(C48,"-",D48)</f>
+        <f t="shared" si="3"/>
         <v>INTV000056-4</v>
       </c>
       <c r="F48" s="22">
@@ -19684,7 +19602,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="30">
-        <f>SUM(F48:N48)-D48</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -19702,7 +19620,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="22" t="str">
-        <f>_xlfn.CONCAT(C49,"-",D49)</f>
+        <f t="shared" si="3"/>
         <v>INTV000068-1</v>
       </c>
       <c r="F49" s="22">
@@ -19733,7 +19651,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="30">
-        <f>SUM(F49:N49)-D49</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -19751,7 +19669,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="22" t="str">
-        <f>_xlfn.CONCAT(C50,"-",D50)</f>
+        <f t="shared" si="3"/>
         <v>INTV000027-2</v>
       </c>
       <c r="F50" s="22">
@@ -19782,7 +19700,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="30">
-        <f>SUM(F50:N50)-D50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -19800,7 +19718,7 @@
         <v>2</v>
       </c>
       <c r="E51" s="22" t="str">
-        <f>_xlfn.CONCAT(C51,"-",D51)</f>
+        <f t="shared" si="3"/>
         <v>INTV000115-2</v>
       </c>
       <c r="F51" s="22">
@@ -19831,7 +19749,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="30">
-        <f>SUM(F51:N51)-D51</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -19849,7 +19767,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="22" t="str">
-        <f>_xlfn.CONCAT(C52,"-",D52)</f>
+        <f t="shared" si="3"/>
         <v>INTV000115-1</v>
       </c>
       <c r="F52" s="22">
@@ -19880,7 +19798,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="30">
-        <f>SUM(F52:N52)-D52</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -19898,7 +19816,7 @@
         <v>21</v>
       </c>
       <c r="E53" s="22" t="str">
-        <f>_xlfn.CONCAT(C53,"-",D53)</f>
+        <f t="shared" si="3"/>
         <v>INTV000009-21</v>
       </c>
       <c r="F53" s="22">
@@ -19929,7 +19847,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="30">
-        <f>SUM(F53:N53)-D53</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -19947,7 +19865,7 @@
         <v>3</v>
       </c>
       <c r="E54" s="22" t="str">
-        <f>_xlfn.CONCAT(C54,"-",D54)</f>
+        <f t="shared" si="3"/>
         <v>INTV000009-3</v>
       </c>
       <c r="F54" s="22">
@@ -19978,7 +19896,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="30">
-        <f>SUM(F54:N54)-D54</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -19996,7 +19914,7 @@
         <v>4</v>
       </c>
       <c r="E55" s="22" t="str">
-        <f>_xlfn.CONCAT(C55,"-",D55)</f>
+        <f t="shared" si="3"/>
         <v>INTV000009-4</v>
       </c>
       <c r="F55" s="22">
@@ -20027,7 +19945,7 @@
         <v>4</v>
       </c>
       <c r="O55" s="30">
-        <f>SUM(F55:N55)-D55</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -20045,7 +19963,7 @@
         <v>7</v>
       </c>
       <c r="E56" s="22" t="str">
-        <f>_xlfn.CONCAT(C56,"-",D56)</f>
+        <f t="shared" si="3"/>
         <v>INTV000009-7</v>
       </c>
       <c r="F56" s="22">
@@ -20076,7 +19994,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="30">
-        <f>SUM(F56:N56)-D56</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -20094,7 +20012,7 @@
         <v>12</v>
       </c>
       <c r="E57" s="22" t="str">
-        <f>_xlfn.CONCAT(C57,"-",D57)</f>
+        <f t="shared" si="3"/>
         <v>INTV000153-12</v>
       </c>
       <c r="F57" s="22">
@@ -20125,7 +20043,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="30">
-        <f>SUM(F57:N57)-D57</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -20143,7 +20061,7 @@
         <v>20</v>
       </c>
       <c r="E58" s="22" t="str">
-        <f>_xlfn.CONCAT(C58,"-",D58)</f>
+        <f t="shared" si="3"/>
         <v>INTV000040-20</v>
       </c>
       <c r="F58" s="22">
@@ -20174,7 +20092,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="30">
-        <f>SUM(F58:N58)-D58</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -20192,7 +20110,7 @@
         <v>8</v>
       </c>
       <c r="E59" s="22" t="str">
-        <f>_xlfn.CONCAT(C59,"-",D59)</f>
+        <f t="shared" si="3"/>
         <v>INTV000042-8</v>
       </c>
       <c r="F59" s="22">
@@ -20223,7 +20141,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="30">
-        <f>SUM(F59:N59)-D59</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -20241,7 +20159,7 @@
         <v>2</v>
       </c>
       <c r="E60" s="22" t="str">
-        <f>_xlfn.CONCAT(C60,"-",D60)</f>
+        <f t="shared" si="3"/>
         <v>INTV000042-2</v>
       </c>
       <c r="F60" s="22">
@@ -20272,7 +20190,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="30">
-        <f>SUM(F60:N60)-D60</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -20290,7 +20208,7 @@
         <v>3</v>
       </c>
       <c r="E61" s="22" t="str">
-        <f>_xlfn.CONCAT(C61,"-",D61)</f>
+        <f t="shared" si="3"/>
         <v>INTV000043-3</v>
       </c>
       <c r="F61" s="22">
@@ -20321,7 +20239,7 @@
         <v>3</v>
       </c>
       <c r="O61" s="30">
-        <f>SUM(F61:N61)-D61</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -20339,7 +20257,7 @@
         <v>2</v>
       </c>
       <c r="E62" s="22" t="str">
-        <f>_xlfn.CONCAT(C62,"-",D62)</f>
+        <f t="shared" si="3"/>
         <v>INTV000043-2</v>
       </c>
       <c r="F62" s="22">
@@ -20370,7 +20288,7 @@
         <v>2</v>
       </c>
       <c r="O62" s="30">
-        <f>SUM(F62:N62)-D62</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -20388,7 +20306,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="22" t="str">
-        <f>_xlfn.CONCAT(C63,"-",D63)</f>
+        <f t="shared" si="3"/>
         <v>C611130-1</v>
       </c>
       <c r="F63" s="22">
@@ -20419,7 +20337,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="30">
-        <f>SUM(F63:N63)-D63</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -20437,7 +20355,7 @@
         <v>8</v>
       </c>
       <c r="E64" s="22" t="str">
-        <f>_xlfn.CONCAT(C64,"-",D64)</f>
+        <f t="shared" si="3"/>
         <v>INTV000052-8</v>
       </c>
       <c r="F64" s="22">
@@ -20468,7 +20386,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="30">
-        <f>SUM(F64:N64)-D64</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -20486,7 +20404,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="22" t="str">
-        <f>_xlfn.CONCAT(C65,"-",D65)</f>
+        <f t="shared" si="3"/>
         <v>INTV000052-3</v>
       </c>
       <c r="F65" s="22">
@@ -20517,7 +20435,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="30">
-        <f>SUM(F65:N65)-D65</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -20535,7 +20453,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="22" t="str">
-        <f>_xlfn.CONCAT(C66,"-",D66)</f>
+        <f t="shared" si="3"/>
         <v>INTV000052-1</v>
       </c>
       <c r="F66" s="22">
@@ -20566,7 +20484,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="30">
-        <f>SUM(F66:N66)-D66</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -20584,7 +20502,7 @@
         <v>6</v>
       </c>
       <c r="E67" s="22" t="str">
-        <f>_xlfn.CONCAT(C67,"-",D67)</f>
+        <f t="shared" si="3"/>
         <v>INTV000011-6</v>
       </c>
       <c r="F67" s="22">
@@ -20615,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="30">
-        <f>SUM(F67:N67)-D67</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -20633,7 +20551,7 @@
         <v>12</v>
       </c>
       <c r="E68" s="22" t="str">
-        <f>_xlfn.CONCAT(C68,"-",D68)</f>
+        <f t="shared" ref="E68:E99" si="5">_xlfn.CONCAT(C68,"-",D68)</f>
         <v>INTV000011-12</v>
       </c>
       <c r="F68" s="22">
@@ -20664,7 +20582,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="30">
-        <f>SUM(F68:N68)-D68</f>
+        <f t="shared" ref="O68:O99" si="6">SUM(F68:N68)-D68</f>
         <v>0</v>
       </c>
     </row>
@@ -20682,7 +20600,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="22" t="str">
-        <f>_xlfn.CONCAT(C69,"-",D69)</f>
+        <f t="shared" si="5"/>
         <v>INTV000011-1</v>
       </c>
       <c r="F69" s="22">
@@ -20713,7 +20631,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="30">
-        <f>SUM(F69:N69)-D69</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -20731,7 +20649,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="22" t="str">
-        <f>_xlfn.CONCAT(C70,"-",D70)</f>
+        <f t="shared" si="5"/>
         <v>INTV000058-1</v>
       </c>
       <c r="F70" s="22">
@@ -20762,7 +20680,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="30">
-        <f>SUM(F70:N70)-D70</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -20780,7 +20698,7 @@
         <v>2</v>
       </c>
       <c r="E71" s="22" t="str">
-        <f>_xlfn.CONCAT(C71,"-",D71)</f>
+        <f t="shared" si="5"/>
         <v>INTV000143-2</v>
       </c>
       <c r="F71" s="22">
@@ -20811,7 +20729,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="30">
-        <f>SUM(F71:N71)-D71</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -20829,7 +20747,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="22" t="str">
-        <f>_xlfn.CONCAT(C72,"-",D72)</f>
+        <f t="shared" si="5"/>
         <v>INTV000070-1</v>
       </c>
       <c r="F72" s="22">
@@ -20860,7 +20778,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="30">
-        <f>SUM(F72:N72)-D72</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -20878,7 +20796,7 @@
         <v>2</v>
       </c>
       <c r="E73" s="22" t="str">
-        <f>_xlfn.CONCAT(C73,"-",D73)</f>
+        <f t="shared" si="5"/>
         <v>INTV000026-2</v>
       </c>
       <c r="F73" s="22">
@@ -20909,7 +20827,7 @@
         <v>2</v>
       </c>
       <c r="O73" s="30">
-        <f>SUM(F73:N73)-D73</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -20927,7 +20845,7 @@
         <v>2</v>
       </c>
       <c r="E74" s="22" t="str">
-        <f>_xlfn.CONCAT(C74,"-",D74)</f>
+        <f t="shared" si="5"/>
         <v>INTV000026-2</v>
       </c>
       <c r="F74" s="22">
@@ -20958,7 +20876,7 @@
         <v>2</v>
       </c>
       <c r="O74" s="30">
-        <f>SUM(F74:N74)-D74</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -20976,7 +20894,7 @@
         <v>12</v>
       </c>
       <c r="E75" s="22" t="str">
-        <f>_xlfn.CONCAT(C75,"-",D75)</f>
+        <f t="shared" si="5"/>
         <v>INTV000012-12</v>
       </c>
       <c r="F75" s="22">
@@ -21007,7 +20925,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="30">
-        <f>SUM(F75:N75)-D75</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -21025,7 +20943,7 @@
         <v>3</v>
       </c>
       <c r="E76" s="22" t="str">
-        <f>_xlfn.CONCAT(C76,"-",D76)</f>
+        <f t="shared" si="5"/>
         <v>INTV000012-3</v>
       </c>
       <c r="F76" s="22">
@@ -21056,7 +20974,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="30">
-        <f>SUM(F76:N76)-D76</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -21074,7 +20992,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="22" t="str">
-        <f>_xlfn.CONCAT(C77,"-",D77)</f>
+        <f t="shared" si="5"/>
         <v>INTV000012-1</v>
       </c>
       <c r="F77" s="22">
@@ -21105,7 +21023,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="30">
-        <f>SUM(F77:N77)-D77</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -21123,7 +21041,7 @@
         <v>4</v>
       </c>
       <c r="E78" s="22" t="str">
-        <f>_xlfn.CONCAT(C78,"-",D78)</f>
+        <f t="shared" si="5"/>
         <v>INTV000034-4</v>
       </c>
       <c r="F78" s="22">
@@ -21154,7 +21072,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="30">
-        <f>SUM(F78:N78)-D78</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -21172,7 +21090,7 @@
         <v>2</v>
       </c>
       <c r="E79" s="22" t="str">
-        <f>_xlfn.CONCAT(C79,"-",D79)</f>
+        <f t="shared" si="5"/>
         <v>INTV000047-2</v>
       </c>
       <c r="F79" s="22">
@@ -21203,7 +21121,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="30">
-        <f>SUM(F79:N79)-D79</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -21221,7 +21139,7 @@
         <v>2</v>
       </c>
       <c r="E80" s="22" t="str">
-        <f>_xlfn.CONCAT(C80,"-",D80)</f>
+        <f t="shared" si="5"/>
         <v>INTV000004-2</v>
       </c>
       <c r="F80" s="22">
@@ -21252,7 +21170,7 @@
         <v>0</v>
       </c>
       <c r="O80" s="30">
-        <f>SUM(F80:N80)-D80</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -21270,7 +21188,7 @@
         <v>1</v>
       </c>
       <c r="E81" s="22" t="str">
-        <f>_xlfn.CONCAT(C81,"-",D81)</f>
+        <f t="shared" si="5"/>
         <v>INTV000004-1</v>
       </c>
       <c r="F81" s="22">
@@ -21301,7 +21219,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="30">
-        <f>SUM(F81:N81)-D81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -21319,7 +21237,7 @@
         <v>8</v>
       </c>
       <c r="E82" s="22" t="str">
-        <f>_xlfn.CONCAT(C82,"-",D82)</f>
+        <f t="shared" si="5"/>
         <v>INTV000150-8</v>
       </c>
       <c r="F82" s="22">
@@ -21350,7 +21268,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="30">
-        <f>SUM(F82:N82)-D82</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -21368,7 +21286,7 @@
         <v>2</v>
       </c>
       <c r="E83" s="22" t="str">
-        <f>_xlfn.CONCAT(C83,"-",D83)</f>
+        <f t="shared" si="5"/>
         <v>INTV000109-2</v>
       </c>
       <c r="F83" s="22">
@@ -21399,7 +21317,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="30">
-        <f>SUM(F83:N83)-D83</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -21417,7 +21335,7 @@
         <v>1</v>
       </c>
       <c r="E84" s="22" t="str">
-        <f>_xlfn.CONCAT(C84,"-",D84)</f>
+        <f t="shared" si="5"/>
         <v>INTV000159-1</v>
       </c>
       <c r="F84" s="22">
@@ -21448,7 +21366,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="30">
-        <f>SUM(F84:N84)-D84</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -21466,7 +21384,7 @@
         <v>9</v>
       </c>
       <c r="E85" s="22" t="str">
-        <f>_xlfn.CONCAT(C85,"-",D85)</f>
+        <f t="shared" si="5"/>
         <v>INTV000084-9</v>
       </c>
       <c r="F85" s="22">
@@ -21497,7 +21415,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="30">
-        <f>SUM(F85:N85)-D85</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -21515,7 +21433,7 @@
         <v>9</v>
       </c>
       <c r="E86" s="22" t="str">
-        <f>_xlfn.CONCAT(C86,"-",D86)</f>
+        <f t="shared" si="5"/>
         <v>INTV000055-9</v>
       </c>
       <c r="F86" s="22">
@@ -21546,7 +21464,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="30">
-        <f>SUM(F86:N86)-D86</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -21564,7 +21482,7 @@
         <v>2</v>
       </c>
       <c r="E87" s="22" t="str">
-        <f>_xlfn.CONCAT(C87,"-",D87)</f>
+        <f t="shared" si="5"/>
         <v>INTV000003-2</v>
       </c>
       <c r="F87" s="22">
@@ -21595,7 +21513,7 @@
         <v>0</v>
       </c>
       <c r="O87" s="30">
-        <f>SUM(F87:N87)-D87</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -21613,7 +21531,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="22" t="str">
-        <f>_xlfn.CONCAT(C88,"-",D88)</f>
+        <f t="shared" si="5"/>
         <v>INTV000003-1</v>
       </c>
       <c r="F88" s="22">
@@ -21644,7 +21562,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="30">
-        <f>SUM(F88:N88)-D88</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -21662,7 +21580,7 @@
         <v>6</v>
       </c>
       <c r="E89" s="22" t="str">
-        <f>_xlfn.CONCAT(C89,"-",D89)</f>
+        <f t="shared" si="5"/>
         <v>INTV000149-6</v>
       </c>
       <c r="F89" s="22">
@@ -21693,7 +21611,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="30">
-        <f>SUM(F89:N89)-D89</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -21711,7 +21629,7 @@
         <v>2</v>
       </c>
       <c r="E90" s="22" t="str">
-        <f>_xlfn.CONCAT(C90,"-",D90)</f>
+        <f t="shared" si="5"/>
         <v>INTV000077-2</v>
       </c>
       <c r="F90" s="22">
@@ -21742,7 +21660,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="30">
-        <f>SUM(F90:N90)-D90</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -21760,7 +21678,7 @@
         <v>4</v>
       </c>
       <c r="E91" s="22" t="str">
-        <f>_xlfn.CONCAT(C91,"-",D91)</f>
+        <f t="shared" si="5"/>
         <v>INTV000077-4</v>
       </c>
       <c r="F91" s="22">
@@ -21791,7 +21709,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="30">
-        <f>SUM(F91:N91)-D91</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -21809,7 +21727,7 @@
         <v>6</v>
       </c>
       <c r="E92" s="22" t="str">
-        <f>_xlfn.CONCAT(C92,"-",D92)</f>
+        <f t="shared" si="5"/>
         <v>INTV000002-6</v>
       </c>
       <c r="F92" s="22">
@@ -21840,7 +21758,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="30">
-        <f>SUM(F92:N92)-D92</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -21858,7 +21776,7 @@
         <v>8</v>
       </c>
       <c r="E93" s="22" t="str">
-        <f>_xlfn.CONCAT(C93,"-",D93)</f>
+        <f t="shared" si="5"/>
         <v>INTV000156-8</v>
       </c>
       <c r="F93" s="22">
@@ -21889,7 +21807,7 @@
         <v>0</v>
       </c>
       <c r="O93" s="30">
-        <f>SUM(F93:N93)-D93</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -21907,7 +21825,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="22" t="str">
-        <f>_xlfn.CONCAT(C94,"-",D94)</f>
+        <f t="shared" si="5"/>
         <v>INTV000095-1</v>
       </c>
       <c r="F94" s="22">
@@ -21938,7 +21856,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="30">
-        <f>SUM(F94:N94)-D94</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -21956,7 +21874,7 @@
         <v>4</v>
       </c>
       <c r="E95" s="22" t="str">
-        <f>_xlfn.CONCAT(C95,"-",D95)</f>
+        <f t="shared" si="5"/>
         <v>INTV000001-4</v>
       </c>
       <c r="F95" s="22">
@@ -21987,7 +21905,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="30">
-        <f>SUM(F95:N95)-D95</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -22005,7 +21923,7 @@
         <v>8</v>
       </c>
       <c r="E96" s="22" t="str">
-        <f>_xlfn.CONCAT(C96,"-",D96)</f>
+        <f t="shared" si="5"/>
         <v>INTV000001-8</v>
       </c>
       <c r="F96" s="22">
@@ -22036,7 +21954,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="30">
-        <f>SUM(F96:N96)-D96</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -22054,7 +21972,7 @@
         <v>2</v>
       </c>
       <c r="E97" s="22" t="str">
-        <f>_xlfn.CONCAT(C97,"-",D97)</f>
+        <f t="shared" si="5"/>
         <v>INTV000048-2</v>
       </c>
       <c r="F97" s="22">
@@ -22085,7 +22003,7 @@
         <v>0</v>
       </c>
       <c r="O97" s="30">
-        <f>SUM(F97:N97)-D97</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -22103,7 +22021,7 @@
         <v>4</v>
       </c>
       <c r="E98" s="22" t="str">
-        <f>_xlfn.CONCAT(C98,"-",D98)</f>
+        <f t="shared" si="5"/>
         <v>INTV000048-4</v>
       </c>
       <c r="F98" s="22">
@@ -22134,7 +22052,7 @@
         <v>0</v>
       </c>
       <c r="O98" s="30">
-        <f>SUM(F98:N98)-D98</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -22152,7 +22070,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="22" t="str">
-        <f>_xlfn.CONCAT(C99,"-",D99)</f>
+        <f t="shared" si="5"/>
         <v>INTV000155-1</v>
       </c>
       <c r="F99" s="22">
@@ -22183,7 +22101,7 @@
         <v>0</v>
       </c>
       <c r="O99" s="30">
-        <f>SUM(F99:N99)-D99</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -22201,7 +22119,7 @@
         <v>1</v>
       </c>
       <c r="E100" s="22" t="str">
-        <f>_xlfn.CONCAT(C100,"-",D100)</f>
+        <f t="shared" ref="E100:E131" si="7">_xlfn.CONCAT(C100,"-",D100)</f>
         <v>INTV000016-1</v>
       </c>
       <c r="F100" s="22">
@@ -22232,7 +22150,7 @@
         <v>0</v>
       </c>
       <c r="O100" s="30">
-        <f>SUM(F100:N100)-D100</f>
+        <f t="shared" ref="O100:O131" si="8">SUM(F100:N100)-D100</f>
         <v>0</v>
       </c>
     </row>
@@ -22250,7 +22168,7 @@
         <v>2</v>
       </c>
       <c r="E101" s="22" t="str">
-        <f>_xlfn.CONCAT(C101,"-",D101)</f>
+        <f t="shared" si="7"/>
         <v>INTV000140-2</v>
       </c>
       <c r="F101" s="22">
@@ -22281,7 +22199,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="30">
-        <f>SUM(F101:N101)-D101</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -22299,7 +22217,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="22" t="str">
-        <f>_xlfn.CONCAT(C102,"-",D102)</f>
+        <f t="shared" si="7"/>
         <v>INTV000138-1</v>
       </c>
       <c r="F102" s="22">
@@ -22330,7 +22248,7 @@
         <v>0</v>
       </c>
       <c r="O102" s="30">
-        <f>SUM(F102:N102)-D102</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -22348,7 +22266,7 @@
         <v>2</v>
       </c>
       <c r="E103" s="22" t="str">
-        <f>_xlfn.CONCAT(C103,"-",D103)</f>
+        <f t="shared" si="7"/>
         <v>INTV000141-2</v>
       </c>
       <c r="F103" s="22">
@@ -22379,7 +22297,7 @@
         <v>0</v>
       </c>
       <c r="O103" s="30">
-        <f>SUM(F103:N103)-D103</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -22397,7 +22315,7 @@
         <v>5</v>
       </c>
       <c r="E104" s="22" t="str">
-        <f>_xlfn.CONCAT(C104,"-",D104)</f>
+        <f t="shared" si="7"/>
         <v>INTV000035-5</v>
       </c>
       <c r="F104" s="22">
@@ -22428,7 +22346,7 @@
         <v>5</v>
       </c>
       <c r="O104" s="30">
-        <f>SUM(F104:N104)-D104</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -22446,7 +22364,7 @@
         <v>2</v>
       </c>
       <c r="E105" s="22" t="str">
-        <f>_xlfn.CONCAT(C105,"-",D105)</f>
+        <f t="shared" si="7"/>
         <v>INTV000132-2</v>
       </c>
       <c r="F105" s="22">
@@ -22477,7 +22395,7 @@
         <v>0</v>
       </c>
       <c r="O105" s="30">
-        <f>SUM(F105:N105)-D105</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -22495,7 +22413,7 @@
         <v>3</v>
       </c>
       <c r="E106" s="22" t="str">
-        <f>_xlfn.CONCAT(C106,"-",D106)</f>
+        <f t="shared" si="7"/>
         <v>INTV000132-3</v>
       </c>
       <c r="F106" s="22">
@@ -22526,7 +22444,7 @@
         <v>0</v>
       </c>
       <c r="O106" s="30">
-        <f>SUM(F106:N106)-D106</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -22544,7 +22462,7 @@
         <v>1</v>
       </c>
       <c r="E107" s="22" t="str">
-        <f>_xlfn.CONCAT(C107,"-",D107)</f>
+        <f t="shared" si="7"/>
         <v>INTV000132-1</v>
       </c>
       <c r="F107" s="22">
@@ -22575,7 +22493,7 @@
         <v>0</v>
       </c>
       <c r="O107" s="30">
-        <f>SUM(F107:N107)-D107</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -22593,7 +22511,7 @@
         <v>9</v>
       </c>
       <c r="E108" s="22" t="str">
-        <f>_xlfn.CONCAT(C108,"-",D108)</f>
+        <f t="shared" si="7"/>
         <v>INTV000096-9</v>
       </c>
       <c r="F108" s="22">
@@ -22624,7 +22542,7 @@
         <v>0</v>
       </c>
       <c r="O108" s="30">
-        <f>SUM(F108:N108)-D108</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -22642,7 +22560,7 @@
         <v>2</v>
       </c>
       <c r="E109" s="22" t="str">
-        <f>_xlfn.CONCAT(C109,"-",D109)</f>
+        <f t="shared" si="7"/>
         <v>INTV000151-2</v>
       </c>
       <c r="F109" s="22">
@@ -22673,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="O109" s="30">
-        <f>SUM(F109:N109)-D109</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -22691,7 +22609,7 @@
         <v>1</v>
       </c>
       <c r="E110" s="22" t="str">
-        <f>_xlfn.CONCAT(C110,"-",D110)</f>
+        <f t="shared" si="7"/>
         <v>INTV000151-1</v>
       </c>
       <c r="F110" s="22">
@@ -22722,7 +22640,7 @@
         <v>0</v>
       </c>
       <c r="O110" s="30">
-        <f>SUM(F110:N110)-D110</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -22740,7 +22658,7 @@
         <v>1</v>
       </c>
       <c r="E111" s="22" t="str">
-        <f>_xlfn.CONCAT(C111,"-",D111)</f>
+        <f t="shared" si="7"/>
         <v>INTV000005-1</v>
       </c>
       <c r="F111" s="22">
@@ -22771,7 +22689,7 @@
         <v>0</v>
       </c>
       <c r="O111" s="30">
-        <f>SUM(F111:N111)-D111</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -22789,7 +22707,7 @@
         <v>6</v>
       </c>
       <c r="E112" s="22" t="str">
-        <f>_xlfn.CONCAT(C112,"-",D112)</f>
+        <f t="shared" si="7"/>
         <v>INTV000157-6</v>
       </c>
       <c r="F112" s="22">
@@ -22820,7 +22738,7 @@
         <v>0</v>
       </c>
       <c r="O112" s="30">
-        <f>SUM(F112:N112)-D112</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -22838,7 +22756,7 @@
         <v>4</v>
       </c>
       <c r="E113" s="22" t="str">
-        <f>_xlfn.CONCAT(C113,"-",D113)</f>
+        <f t="shared" si="7"/>
         <v>INTV000145-4</v>
       </c>
       <c r="F113" s="22">
@@ -22869,7 +22787,7 @@
         <v>4</v>
       </c>
       <c r="O113" s="30">
-        <f>SUM(F113:N113)-D113</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -22881,12 +22799,12 @@
   </autoFilter>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B4:O145">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND($O4&lt;&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:O3">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>F$1&lt;&gt;F$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22902,7 +22820,7 @@
   </sheetPr>
   <dimension ref="A3:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -25437,6 +25355,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E1429CD0041A464E806C81B7ABFF4B91" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2b0fbaf270c4a75035f8926948945060">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6d94e030-dfb3-40dd-a2f7-737e002c9dc5" xmlns:ns4="92febf2f-e9cf-4781-a667-9b423be45abf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37cb2e4c78d4d5709ee2f324d92355e5" ns3:_="" ns4:_="">
     <xsd:import namespace="6d94e030-dfb3-40dd-a2f7-737e002c9dc5"/>
@@ -25651,15 +25578,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -25667,6 +25585,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F286F378-469B-4751-89D3-9F99B20EBE97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EB18A04-E841-4619-AC22-CBEA20E06E17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25681,14 +25607,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F286F378-469B-4751-89D3-9F99B20EBE97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
